--- a/texts/voice/info.xlsx
+++ b/texts/voice/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="13020"/>
+    <workbookView windowWidth="23340" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -674,15 +674,39 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -697,7 +721,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,85 +764,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,15 +780,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,6 +796,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,7 +847,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,55 +883,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,13 +931,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,7 +955,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,73 +1021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,6 +1061,26 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,36 +1133,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,6 +1152,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1169,7 +1169,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1178,136 +1178,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,6 +1404,1979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>562610</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図形 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505960" y="438785"/>
+          <a:ext cx="9772650" cy="4467225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5114925" y="346075"/>
+          <a:ext cx="8070850" cy="4971415"/>
+          <a:chOff x="8040" y="530"/>
+          <a:chExt cx="12710" cy="8264"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8040" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8885" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9910" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10950" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12920" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14005" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15300" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16925" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18640" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19740" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="20750" y="530"/>
+            <a:ext cx="0" cy="8265"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149860</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4600575" y="5010150"/>
+          <a:ext cx="9142730" cy="283210"/>
+          <a:chOff x="7230" y="7920"/>
+          <a:chExt cx="14398" cy="446"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキストボックス 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7230" y="7935"/>
+            <a:ext cx="667" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>アイ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキストボックス 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8165" y="7935"/>
+            <a:ext cx="664" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ドル</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキストボックス 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9013" y="7935"/>
+            <a:ext cx="686" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>マス</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="テキストボックス 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10051" y="7935"/>
+            <a:ext cx="667" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ター</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキストボックス 19"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11420" y="7935"/>
+            <a:ext cx="994" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ミリオン</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキストボックス 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13198" y="7920"/>
+            <a:ext cx="647" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ライ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキストボックス 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14200" y="7935"/>
+            <a:ext cx="482" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ブ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキストボックス 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17500" y="7935"/>
+            <a:ext cx="684" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>シア</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキストボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18847" y="7935"/>
+            <a:ext cx="667" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ター</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキストボックス 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19949" y="7935"/>
+            <a:ext cx="680" cy="431"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>デイ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキストボックス 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21128" y="7980"/>
+            <a:ext cx="500" cy="386"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ズ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,8 +3639,8 @@
   <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3808,13 +5781,14 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/texts/voice/info.xlsx
+++ b/texts/voice/info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23340" windowHeight="12975" activeTab="1"/>
+    <workbookView windowWidth="24345" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
@@ -1408,6 +1408,1551 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>408305</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>27305</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="グループ化 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4523105" y="4951095"/>
+          <a:ext cx="9220200" cy="400050"/>
+          <a:chOff x="7108" y="7827"/>
+          <a:chExt cx="14520" cy="630"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="テキストボックス 2"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7108" y="7842"/>
+            <a:ext cx="908" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>アイ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="テキストボックス 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8045" y="7842"/>
+            <a:ext cx="903" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ドル</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="テキストボックス 17"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8887" y="7842"/>
+            <a:ext cx="938" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>マス</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="テキストボックス 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9929" y="7842"/>
+            <a:ext cx="910" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ター</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="テキストボックス 19"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11194" y="7842"/>
+            <a:ext cx="1444" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ミリオン</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="テキストボックス 20"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13082" y="7827"/>
+            <a:ext cx="876" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ライ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="テキストボックス 21"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14137" y="7842"/>
+            <a:ext cx="606" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ブ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキストボックス 22"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17375" y="7842"/>
+            <a:ext cx="934" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>シア</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキストボックス 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18725" y="7842"/>
+            <a:ext cx="910" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ター</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキストボックス 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19822" y="7842"/>
+            <a:ext cx="931" cy="615"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>デイ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキストボックス 25"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="21128" y="7980"/>
+            <a:ext cx="500" cy="386"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ja-JP">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1800"/>
+              <a:t>ズ</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -1831,1551 +3376,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>27305</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149860</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="グループ化 26"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4600575" y="5010150"/>
-          <a:ext cx="9142730" cy="283210"/>
-          <a:chOff x="7230" y="7920"/>
-          <a:chExt cx="14398" cy="446"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="テキストボックス 2"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7230" y="7935"/>
-            <a:ext cx="667" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>アイ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="テキストボックス 16"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8165" y="7935"/>
-            <a:ext cx="664" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ドル</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="テキストボックス 17"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9013" y="7935"/>
-            <a:ext cx="686" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>マス</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="テキストボックス 18"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10051" y="7935"/>
-            <a:ext cx="667" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ター</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキストボックス 19"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11420" y="7935"/>
-            <a:ext cx="994" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ミリオン</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="テキストボックス 20"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13198" y="7920"/>
-            <a:ext cx="647" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ライ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキストボックス 21"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="14200" y="7935"/>
-            <a:ext cx="482" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ブ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="テキストボックス 22"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="17500" y="7935"/>
-            <a:ext cx="684" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>シア</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキストボックス 23"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="18847" y="7935"/>
-            <a:ext cx="667" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ター</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="テキストボックス 24"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19949" y="7935"/>
-            <a:ext cx="680" cy="431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>デイ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp>
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="テキストボックス 25"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="21128" y="7980"/>
-            <a:ext cx="500" cy="386"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-              </a:defRPr>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ズ</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3639,8 +3639,8 @@
   <sheetPr/>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5781,7 +5781,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
